--- a/Statistics for Business and Economics/Chapter 1/Chapter 1 Supplementary Exercises.xlsx
+++ b/Statistics for Business and Economics/Chapter 1/Chapter 1 Supplementary Exercises.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Mingyang/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Mingyang/Documents/GitHub/Data-Science/Statistics for Business and Economics/Chapter 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>1.  Statistics as a numerical fact is a piece of numerical information, also known as data, used to describe an event, occurrence or phenomena. Statistics as a discipline uses statistics or numerical pieces of information to solve problems in the everyday world and in academics. Those who work with statistics as a discipline are called statisticians. The discipline of statistics covers several areas of science and industries, including the environment, health and epidemiology, computer science and astronomy. Statisticians may also work in education, engineering and in other non-science sectors such as business. Work is done primarily in an office setting, but they may also travel to sites to collect data to analyze later. Statisticians may work for government or in the private sector. Statistician positions generally require a graduate degree in mathematics or statistics, but some jobs may only require a bachelor's degree. Statisticians present their data through several graphs and plots such as pie or chart graphs, bar graphs and stem and leaf plots. Statistics may be descriptive or inferential. Descriptive statistics describe features of the population or sample being studied and includes measurements such as mean, median and mode. Inferential statistics involve inferring something about the population studied. This process is done through hypothesis testing</t>
   </si>
@@ -56,7 +56,118 @@
     <t>3. d. 6/10 = 0.6*100% = 60%</t>
   </si>
   <si>
-    <t xml:space="preserve">4. a. </t>
+    <t>4. a. 7</t>
+  </si>
+  <si>
+    <t>4. b. 5</t>
+  </si>
+  <si>
+    <t>4. c. State, campus setting and NCAA division are categorical variables, and endowment and applicants admitted are quantiative variables.</t>
+  </si>
+  <si>
+    <t>5. a. 74.6/7=10.7</t>
+  </si>
+  <si>
+    <t>5. b. 111/7 = 15.85</t>
+  </si>
+  <si>
+    <t>5. c. 3/7*100%=42.9%</t>
+  </si>
+  <si>
+    <t>5. d. 3/7*100%=42.9%</t>
+  </si>
+  <si>
+    <t>7. a. Categorical variables.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7. b. Nominal scale. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. B ,C and E are categorical data. A and D are quantitative data.  </t>
+  </si>
+  <si>
+    <t>8. a. 1015 adults</t>
+  </si>
+  <si>
+    <t>8. b. categorical data</t>
+  </si>
+  <si>
+    <t>8. c. Yes</t>
+  </si>
+  <si>
+    <t>9. a. categorical variable</t>
+  </si>
+  <si>
+    <t>9. b. 30/71*100% =42.3%</t>
+  </si>
+  <si>
+    <t>8. d. 1015*10%=101.5; 101 or 102 respondents.</t>
+  </si>
+  <si>
+    <t>10. A, D are quantiative data and ratio scale, B and E are categorical data and nominal scale. C is categorical data and ordinal scale.</t>
+  </si>
+  <si>
+    <t>11. A and D are quantiative variables, and B, C and E are quantitative variables. B and E are nominal scale, and A and D are ratio scale. C is ordinal scale.</t>
+  </si>
+  <si>
+    <t>12. a. All visitors to Hawaii.</t>
+  </si>
+  <si>
+    <t>12. b. Yes</t>
+  </si>
+  <si>
+    <t>12. c. 1, 2 and 3 are categorical data, and 4 is quantitative data.</t>
+  </si>
+  <si>
+    <t>13. b. quantitative data</t>
+  </si>
+  <si>
+    <t>13. a. Federal spending</t>
+  </si>
+  <si>
+    <t>13. c. time series data</t>
+  </si>
+  <si>
+    <t>13. d. increase from 2002 to 2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14. a. </t>
+  </si>
+  <si>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>General Motors</t>
+  </si>
+  <si>
+    <t>Ford</t>
+  </si>
+  <si>
+    <t>DaimlerChrysler</t>
+  </si>
+  <si>
+    <t>Toyota</t>
+  </si>
+  <si>
+    <t>14. b. Toyota surpasses General Motors in 2006 to become the leading auto manufacturer</t>
+  </si>
+  <si>
+    <t>14. c. Cross-sectional data</t>
+  </si>
+  <si>
+    <t>18. a. 155/430*100%=36%</t>
+  </si>
+  <si>
+    <t>18. b. 430*44%=189</t>
+  </si>
+  <si>
+    <t>18.c. categorical data</t>
+  </si>
+  <si>
+    <t>20. a. 43% of managers were bullish or very bullish, and 21% of managers expected health care to be the leading industry over the next 12 months</t>
+  </si>
+  <si>
+    <t>20. b. Yes</t>
   </si>
 </sst>
 </file>
@@ -106,6 +217,1121 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Time series graph</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2004</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$37:$A$40</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>General Motors</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ford</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DaimlerChrysler</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Toyota</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$37:$B$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2005</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$37:$A$40</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>General Motors</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ford</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DaimlerChrysler</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Toyota</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$37:$C$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2006</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$37:$A$40</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>General Motors</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ford</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DaimlerChrysler</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Toyota</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$37:$D$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2007</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$37:$A$40</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>General Motors</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ford</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DaimlerChrysler</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Toyota</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$37:$E$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-880494576"/>
+        <c:axId val="-877290016"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-880494576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-877290016"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-877290016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-880494576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -371,10 +1597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -429,7 +1655,253 @@
         <v>9</v>
       </c>
     </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>2004</v>
+      </c>
+      <c r="C36">
+        <v>2005</v>
+      </c>
+      <c r="D36">
+        <v>2006</v>
+      </c>
+      <c r="E36">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>8.9</v>
+      </c>
+      <c r="C37">
+        <v>9</v>
+      </c>
+      <c r="D37">
+        <v>8.9</v>
+      </c>
+      <c r="E37">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>7.8</v>
+      </c>
+      <c r="C38">
+        <v>7.7</v>
+      </c>
+      <c r="D38">
+        <v>7.8</v>
+      </c>
+      <c r="E38">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C39">
+        <v>4.2</v>
+      </c>
+      <c r="D39">
+        <v>4.3</v>
+      </c>
+      <c r="E39">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>7.8</v>
+      </c>
+      <c r="C40">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="D40">
+        <v>9.1</v>
+      </c>
+      <c r="E40">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Statistics for Business and Economics/Chapter 1/Chapter 1 Supplementary Exercises.xlsx
+++ b/Statistics for Business and Economics/Chapter 1/Chapter 1 Supplementary Exercises.xlsx
@@ -1600,7 +1600,7 @@
   <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Statistics for Business and Economics/Chapter 1/Chapter 1 Supplementary Exercises.xlsx
+++ b/Statistics for Business and Economics/Chapter 1/Chapter 1 Supplementary Exercises.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>1.  Statistics as a numerical fact is a piece of numerical information, also known as data, used to describe an event, occurrence or phenomena. Statistics as a discipline uses statistics or numerical pieces of information to solve problems in the everyday world and in academics. Those who work with statistics as a discipline are called statisticians. The discipline of statistics covers several areas of science and industries, including the environment, health and epidemiology, computer science and astronomy. Statisticians may also work in education, engineering and in other non-science sectors such as business. Work is done primarily in an office setting, but they may also travel to sites to collect data to analyze later. Statisticians may work for government or in the private sector. Statistician positions generally require a graduate degree in mathematics or statistics, but some jobs may only require a bachelor's degree. Statisticians present their data through several graphs and plots such as pie or chart graphs, bar graphs and stem and leaf plots. Statistics may be descriptive or inferential. Descriptive statistics describe features of the population or sample being studied and includes measurements such as mean, median and mode. Inferential statistics involve inferring something about the population studied. This process is done through hypothesis testing</t>
   </si>
@@ -168,6 +168,36 @@
   </si>
   <si>
     <t>20. b. Yes</t>
+  </si>
+  <si>
+    <t>20. c. When asked to estimate how long it would take for technology and telecom stocks to resume sustainable growth, the managers’ average response was 2.5 years.</t>
+  </si>
+  <si>
+    <t>22. The population consists of all customers of the chain stores in Charlotte, North Carolina</t>
+  </si>
+  <si>
+    <t>22. b. • A survey could be mailed to customers who have a shopper’s club card.</t>
+  </si>
+  <si>
+    <t>• Customers could be given a coupon that asks them to complete a brief online survey; if they do, they will receive a 5% discount on their next shopping trip.</t>
+  </si>
+  <si>
+    <t>• Customers could be given a printed survey when they check out</t>
+  </si>
+  <si>
+    <t>24. a. Correct</t>
+  </si>
+  <si>
+    <t>b. Incorrect</t>
+  </si>
+  <si>
+    <t>d. Incorrect</t>
+  </si>
+  <si>
+    <t>e. Incorrect</t>
+  </si>
+  <si>
+    <t>c. Correct</t>
   </si>
 </sst>
 </file>
@@ -570,11 +600,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-880494576"/>
-        <c:axId val="-877290016"/>
+        <c:axId val="1914815696"/>
+        <c:axId val="1870575648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-880494576"/>
+        <c:axId val="1914815696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -617,7 +647,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-877290016"/>
+        <c:crossAx val="1870575648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -625,7 +655,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-877290016"/>
+        <c:axId val="1870575648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -675,7 +705,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-880494576"/>
+        <c:crossAx val="1914815696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1597,10 +1627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1900,6 +1930,56 @@
         <v>46</v>
       </c>
     </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
